--- a/ClickTMtool_all_required_packages.xlsx
+++ b/ClickTMtool_all_required_packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kostas charm\Dropbox\Patent Analysis\NLP_package\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6A64E-B934-4ACA-824C-568B73D67D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76331020-73D5-48C7-9C52-46A72749B76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="190">
   <si>
     <t>new_values</t>
   </si>
@@ -1113,6 +1113,24 @@
   </si>
   <si>
     <t>Data split into Train and Test datasets (nominal target variable). Implementations of Boosted Logistic Regression.</t>
+  </si>
+  <si>
+    <t>shinyjs</t>
+  </si>
+  <si>
+    <t>viridis</t>
+  </si>
+  <si>
+    <t>shinyjs (Attali, 2021)</t>
+  </si>
+  <si>
+    <t>UI templates and widgets</t>
+  </si>
+  <si>
+    <t>viridis (Garnier et al., 2021)</t>
+  </si>
+  <si>
+    <t>Visualization templates</t>
   </si>
 </sst>
 </file>
@@ -1175,12 +1193,18 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1280,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,9 +1328,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1316,6 +1337,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1622,16 +1649,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1890,7 +1917,7 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1902,7 +1929,7 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1926,7 +1953,7 @@
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2018,7 +2045,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2082,7 +2109,7 @@
       <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2094,7 +2121,7 @@
       <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2114,11 +2141,11 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -2128,263 +2155,286 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>123</v>
+        <v>184</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>128</v>
+        <v>50</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>144</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>154</v>
+        <v>2</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>43</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C61">
-    <sortCondition ref="A2:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
+    <sortCondition ref="A2:A63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
